--- a/public/excel/persyaratan.xlsx
+++ b/public/excel/persyaratan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp_8c\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AFF0DD-EA1F-471B-8377-80268AF9357F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C113493E-0DD9-47C1-B6AA-14A2C629B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>tahun</t>
   </si>
@@ -33,15 +33,12 @@
   <si>
     <t>satker_id</t>
   </si>
-  <si>
-    <t>id</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -51,14 +48,8 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,12 +59,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -90,11 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -415,91 +398,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="15.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="str">
-        <f>_xlfn.CONCAT(B2,C2)</f>
-        <v>11002023</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
         <v>1100</v>
       </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3">
         <v>2023</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A4" si="0">_xlfn.CONCAT(B3,C3)</f>
-        <v>11042023</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
         <v>1104</v>
       </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3">
         <v>2023</v>
       </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>11112023</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>1111</v>
       </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3">
         <v>2023</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
